--- a/Contribution_of_Team_Members.xlsx
+++ b/Contribution_of_Team_Members.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dschw\Documents\GitHub\WDIProjekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d067795\Documents\GitHub\WDIProjekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88E23F03-3427-4904-A584-631E3002BD12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69DA93D-B06F-463F-BD8A-9C402335F2DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10575" yWindow="3285" windowWidth="21600" windowHeight="11325" xr2:uid="{7EF2D3A3-122C-4149-9370-BCDE6AE12154}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7EF2D3A3-122C-4149-9370-BCDE6AE12154}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>Phase</t>
   </si>
@@ -246,18 +245,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -273,7 +272,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -572,10 +571,10 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -598,71 +597,80 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
       <c r="C6" t="s">
         <v>10</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" t="s">
         <v>11</v>
       </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
@@ -673,8 +681,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -683,8 +691,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -693,8 +701,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -703,10 +711,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C12" t="s">
@@ -717,8 +725,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
       <c r="C13" t="s">
         <v>26</v>
       </c>
@@ -727,8 +735,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
       <c r="C14" t="s">
         <v>27</v>
       </c>
@@ -737,8 +745,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C15" t="s">
@@ -749,8 +757,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="s">
@@ -761,8 +769,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
       <c r="C17" t="s">
         <v>29</v>
       </c>
@@ -771,8 +779,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
       <c r="C18" t="s">
         <v>30</v>
       </c>
@@ -781,8 +789,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C19" t="s">
@@ -793,8 +801,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
       <c r="C20" t="s">
         <v>37</v>
       </c>
@@ -803,8 +811,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
       <c r="C21" t="s">
         <v>36</v>
       </c>
@@ -813,8 +821,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
       <c r="C22" t="s">
         <v>39</v>
       </c>
@@ -823,8 +831,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
       <c r="C23" t="s">
         <v>40</v>
       </c>
@@ -833,10 +841,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C24" t="s">
@@ -847,8 +855,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="2"/>
       <c r="C25" t="s">
         <v>53</v>
       </c>
@@ -857,20 +865,20 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">

--- a/Contribution_of_Team_Members.xlsx
+++ b/Contribution_of_Team_Members.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d067795\Documents\GitHub\WDIProjekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jannik\Desktop\WDIProjekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69DA93D-B06F-463F-BD8A-9C402335F2DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F487070-A4C6-4AC5-AA43-9214EE562ED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7EF2D3A3-122C-4149-9370-BCDE6AE12154}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7EF2D3A3-122C-4149-9370-BCDE6AE12154}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
     <t>Generate Data Fusers</t>
   </si>
   <si>
-    <t>Carolin, Luka</t>
+    <t>Carolin, Luka, Jannik</t>
   </si>
 </sst>
 </file>
@@ -256,7 +256,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -272,7 +272,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -571,15 +571,15 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">

--- a/Contribution_of_Team_Members.xlsx
+++ b/Contribution_of_Team_Members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jannik\Desktop\WDIProjekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F487070-A4C6-4AC5-AA43-9214EE562ED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3B8518-F3BF-458F-A490-F6131CD0ECD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7EF2D3A3-122C-4149-9370-BCDE6AE12154}"/>
   </bookViews>
@@ -197,7 +197,7 @@
     <t>Generate Data Fusers</t>
   </si>
   <si>
-    <t>Carolin, Luka, Jannik</t>
+    <t>Carolin, Jannik, Luka</t>
   </si>
 </sst>
 </file>
